--- a/일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
+++ b/일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
@@ -989,25 +989,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>컨셉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t xml:space="preserve">스토리
 </t>
     </r>
@@ -1052,12 +1033,76 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세이브</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>앤</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
@@ -1076,56 +1121,318 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">시스템
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상황</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>별</t>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">인벤토리
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">유저유
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">선물
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기타</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컨텐츠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다이어리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">컨텐츠
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">만보기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이벤트
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>숨겨진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이야기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
     </r>
     <r>
       <rPr>
@@ -1152,383 +1459,11 @@
         <b/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>플레이어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>만보기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">연동
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>재화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">)
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">인벤토리
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시스템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사진</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&amp; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다이어리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">컨텐츠
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>돌발</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">이벤트
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선물</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구매</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">선물
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">UI
-Sound Effect
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>세이브</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>앤</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로드</t>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UI
+Sound Effect</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1563,7 +1498,245 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>구현</t>
+      <t xml:space="preserve">구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">디자인
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">컨셉
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">출력
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이동
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">모션
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코스</t>
     </r>
     <r>
       <rPr>
@@ -1593,26 +1766,45 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">출력
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">선택
 </t>
     </r>
     <r>
@@ -1632,26 +1824,26 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">이동
+      <t>공간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">인식
 </t>
     </r>
     <r>
@@ -1671,26 +1863,93 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">애니메이션
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포인트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">지정
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -1702,7 +1961,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>핵심컨텐츠</t>
+      <t>상호작용</t>
     </r>
     <r>
       <rPr>
@@ -1732,45 +1991,45 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">선택
+      <t>지정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">인식
 </t>
     </r>
     <r>
@@ -1790,250 +2049,234 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+      <t>지정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가게에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">상호작용
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대화에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>따른</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> VPS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">연출
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">방명록
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">프롤로그
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호감도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">스토리
+</t>
+    </r>
+    <r>
+      <rPr>
         <b/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">인식
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가게에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">상호작용
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대화에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>따른</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> VPS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연출</t>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UI</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2271,6 +2514,51 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2304,36 +2592,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2348,30 +2615,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3222,8 +3465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:H9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3234,29 +3477,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="8"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="8"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
@@ -3292,76 +3535,76 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="12"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="27"/>
     </row>
     <row r="5" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="15"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="30"/>
     </row>
     <row r="6" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="38"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="27" t="s">
+      <c r="G6" s="34"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="27" t="s">
+      <c r="J6" s="36"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="23"/>
+      <c r="M6" s="15"/>
     </row>
     <row r="7" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="26"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
@@ -3376,15 +3619,15 @@
       <c r="E8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
       <c r="K8" s="4" t="s">
         <v>25</v>
       </c>
@@ -3395,41 +3638,34 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="281.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="315.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="33" t="s">
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="33" t="s">
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="18"/>
+      <c r="M9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C6:D7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="E2:H2"/>
@@ -3439,6 +3675,13 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F6:H7"/>
     <mergeCell ref="I6:K7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C6:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
+++ b/일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
@@ -2520,6 +2520,75 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2535,18 +2604,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2558,63 +2615,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3466,7 +3466,7 @@
   <dimension ref="B2:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3477,29 +3477,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="23"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="24" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
       <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="23"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
@@ -3535,76 +3535,76 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="27"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="14"/>
     </row>
     <row r="5" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="30"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="14" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="14" t="s">
+      <c r="J6" s="27"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="15"/>
+      <c r="M6" s="22"/>
     </row>
     <row r="7" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
@@ -3626,8 +3626,8 @@
       <c r="H8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
       <c r="K8" s="4" t="s">
         <v>25</v>
       </c>
@@ -3642,30 +3642,37 @@
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="11" t="s">
+      <c r="G9" s="35"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="11" t="s">
+      <c r="J9" s="35"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="13"/>
+      <c r="M9" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C6:D7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="E2:H2"/>
@@ -3675,13 +3682,6 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F6:H7"/>
     <mergeCell ref="I6:K7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C6:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
+++ b/일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>9월</t>
   </si>
@@ -711,33 +711,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>핵심 기능 기획 &amp; 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 캐릭터 구현
-- 핵심 컨텐츠 구현
-- VPS를 활용한 상호작용 기능 구현</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">11.28 CBT </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -777,175 +750,1497 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>非 핵심 기능 구현</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디버깅
+미</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현
+최종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빌드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완성</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기능 최적화
-최종 빌드 구현</t>
+    <r>
+      <t>10.20 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미팅</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>디버깅
-미</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구현
-최종</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>빌드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>완성</t>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">스토리
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">취향
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세이브</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>앤</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호감도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">인벤토리
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">유저유
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">선물
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기타</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컨텐츠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다이어리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">컨텐츠
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">만보기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이벤트
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>숨겨진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이야기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">대사
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UI
+Sound Effect</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>10.20 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>차</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기업</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미팅</t>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">디자인
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">컨셉
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">출력
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이동
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">모션
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">선택
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">인식
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포인트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">지정
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">인식
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가게에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">상호작용
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대화에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>따른</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> VPS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">연출
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">방명록
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">프롤로그
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호감도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">스토리
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UI</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -959,7 +2254,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>캐릭터</t>
+      <t>핵심 기능 기획 &amp; 구현</t>
     </r>
     <r>
       <rPr>
@@ -970,1313 +2265,96 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">스토리
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>세부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">취향
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>세이브</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>앤</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>호감도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">인벤토리
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">유저유
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">선물
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기타</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>컨텐츠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사진</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&amp; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다이어리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">컨텐츠
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">만보기
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스토리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>특별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">이벤트
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>숨겨진</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">이야기
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">대사
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>UI
-Sound Effect</t>
+캐릭터와 데이트 코스를 따라갈 수 있게 만들어 실제 데이트하는 느낌을 유저들에게 제공</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <t xml:space="preserve">非 핵심 기능 구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호감도, 스토리를 통해 유저가 더 빠져들어 오랫동안 게임을 즐기도록 유도</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">기능 최적화
+최종 빌드 구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>끊기지 않고 온전한 데이트를 즐기도록 완성</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터</t>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기획</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- 컨셉 기획서
+-컨셉 제안서
+-마일스톤, WBS
+</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구현
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">디자인
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">컨셉
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">출력
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">이동
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">모션
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">선택
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공간</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">인식
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>포인트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">지정
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">인식
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가게에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">상호작용
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대화에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>따른</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> VPS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">연출
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">방명록
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스토리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">프롤로그
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>호감도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">스토리
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>UI</t>
+구글 AR기술 R&amp;D</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2285,7 +2363,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2342,6 +2420,15 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2492,7 +2579,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2523,6 +2610,51 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2559,21 +2691,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2590,31 +2710,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2710,13 +2815,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:colOff>617444</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:colOff>1341344</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>609600</xdr:rowOff>
     </xdr:to>
@@ -2727,8 +2832,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14935200" y="647700"/>
-          <a:ext cx="723900" cy="800100"/>
+          <a:off x="16339297" y="657785"/>
+          <a:ext cx="723900" cy="803462"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2782,13 +2887,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>112059</xdr:colOff>
+      <xdr:colOff>100853</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>588869</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>609600</xdr:rowOff>
     </xdr:to>
@@ -2799,7 +2904,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15833912" y="657785"/>
+          <a:off x="15822706" y="657785"/>
           <a:ext cx="488016" cy="803462"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3463,10 +3568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M9"/>
+  <dimension ref="B2:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3477,29 +3582,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="10"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
       <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="10"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
@@ -3535,76 +3640,76 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="14"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="29"/>
     </row>
     <row r="5" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="32"/>
     </row>
     <row r="6" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="38"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="22"/>
+      <c r="F6" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="25"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="19"/>
     </row>
     <row r="8" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
@@ -3621,58 +3726,69 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
       <c r="K8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="315.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="2:13" ht="351.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="9"/>
+      <c r="C9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
+    </row>
+    <row r="10" spans="2:13" ht="315.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="5" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="34" t="s">
+      <c r="F10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="36"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C6:D7"/>
+  <mergeCells count="17">
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="E2:H2"/>
@@ -3682,6 +3798,14 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F6:H7"/>
     <mergeCell ref="I6:K7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
+++ b/일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>9월</t>
   </si>
@@ -59,9 +59,6 @@
     <t>개별 마일스톤</t>
   </si>
   <si>
-    <t>개발 스펙</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">09.22 </t>
     </r>
@@ -529,188 +526,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기획</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>컨셉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획서
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>컨셉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">제안서
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마일스톤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, WBS
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개발</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-구글</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> AR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기술</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> R&amp;D</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">11.28 CBT </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -861,55 +676,519 @@
   </si>
   <si>
     <r>
-      <t>10.20 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>차</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기업</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미팅</t>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">스토리
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">취향
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세이브</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>앤</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호감도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">인벤토리
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">유저유
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">선물
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기타</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컨텐츠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다이어리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">컨텐츠
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">만보기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이벤트
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>숨겨진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이야기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">대사
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UI
+Sound Effect</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -923,7 +1202,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>캐릭터</t>
+      <t>핵심 기능 기획 &amp; 구현</t>
     </r>
     <r>
       <rPr>
@@ -934,1373 +1213,167 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">스토리
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>세부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">취향
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>세이브</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>앤</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>호감도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">인벤토리
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">유저유
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">선물
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기타</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>컨텐츠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사진</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&amp; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다이어리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">컨텐츠
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">만보기
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스토리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>특별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">이벤트
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>숨겨진</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">이야기
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">대사
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>UI
-Sound Effect</t>
+캐릭터와 데이트 코스를 따라갈 수 있게 만들어 실제 데이트하는 느낌을 유저들에게 제공</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구현
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">디자인
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">컨셉
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">출력
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">이동
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">모션
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">선택
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공간</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">인식
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>포인트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">지정
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">인식
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가게에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">상호작용
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대화에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>따른</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> VPS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">연출
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">방명록
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스토리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">프롤로그
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>호감도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">스토리
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>UI</t>
+      <t xml:space="preserve">非 핵심 기능 구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호감도, 스토리를 통해 유저가 더 빠져들어 오랫동안 게임을 즐기도록 유도</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>핵심 기능 기획 &amp; 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-캐릭터와 데이트 코스를 따라갈 수 있게 만들어 실제 데이트하는 느낌을 유저들에게 제공</t>
+      <t xml:space="preserve">기능 최적화
+최종 빌드 구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>끊기지 않고 온전한 데이트를 즐기도록 완성</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">非 핵심 기능 구현
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>호감도, 스토리를 통해 유저가 더 빠져들어 오랫동안 게임을 즐기도록 유도</t>
+      <t>10.17 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차프로토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기획서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+10.20 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미팅</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">기능 최적화
-최종 빌드 구현
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>끊기지 않고 온전한 데이트를 즐기도록 완성</t>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스펙</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2308,6 +1381,819 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">디자인
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">컨셉
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">출력
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이동
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">모션
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">선택
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">인식
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포인트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">지정
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">인식
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가게에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">상호작용
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대화에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>따른</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> VPS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">연출
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">방명록
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">프롤로그
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호감도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">스토리
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UI</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
@@ -2328,8 +2214,8 @@
       </rPr>
       <t xml:space="preserve">
 - 컨셉 기획서
--컨셉 제안서
--마일스톤, WBS
+- 컨셉 제안서
+- 마일스톤, WBS
 </t>
     </r>
     <r>
@@ -2355,6 +2241,1069 @@
       </rPr>
       <t xml:space="preserve">
 구글 AR기술 R&amp;D</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컨셉</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기획</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컨셉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기획서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)
+- 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획서
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모드</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획서
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>건물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">리스트
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">인식
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컨셉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획서
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>산책</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획서
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호감도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획서
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>R&amp;D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기술</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- 3D </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">제작
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구현
+상호작용
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2614,43 +3563,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2691,7 +3613,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2710,16 +3644,31 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3570,8 +4519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3582,31 +4531,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="25"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="26" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
       <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="25"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>4</v>
@@ -3640,155 +4589,163 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="29"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="24"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="32"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23"/>
     </row>
     <row r="6" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>14</v>
+      <c r="C6" s="43" t="s">
+        <v>13</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="28"/>
+    </row>
+    <row r="7" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="15"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="17"/>
-    </row>
-    <row r="7" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="19"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="31"/>
     </row>
     <row r="8" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
       <c r="K8" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="351.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9"/>
-      <c r="C9" s="11" t="s">
-        <v>20</v>
+      <c r="B9" s="9" t="s">
+        <v>29</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="46" t="s">
+      <c r="C9" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" spans="2:13" ht="315.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>11</v>
+      <c r="B10" s="3"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="40" t="s">
+        <v>30</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>20</v>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="40" t="s">
+        <v>24</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="5" t="s">
-        <v>22</v>
+      <c r="J10" s="41"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="40" t="s">
+        <v>23</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="15"/>
+      <c r="M10" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="E2:H2"/>
@@ -3798,14 +4755,6 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F6:H7"/>
     <mergeCell ref="I6:K7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
+++ b/일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
@@ -3112,6 +3112,7 @@
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="돋움"/>
@@ -3122,22 +3123,34 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구현
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -3157,7 +3170,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>캐릭터</t>
+      <t>그래픽</t>
     </r>
     <r>
       <rPr>
@@ -4519,8 +4532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
+++ b/일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
@@ -6698,6 +6698,51 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6737,19 +6782,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6766,39 +6799,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7657,8 +7657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7669,29 +7669,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="10"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
       <c r="M2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="10"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
@@ -7727,76 +7727,76 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="14"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="29"/>
     </row>
     <row r="5" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="32"/>
     </row>
     <row r="6" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="26" t="s">
+      <c r="G6" s="36"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="26" t="s">
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="22"/>
+      <c r="M6" s="15"/>
     </row>
     <row r="7" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="25"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
@@ -7818,8 +7818,8 @@
       <c r="H8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
       <c r="K8" s="2" t="s">
         <v>20</v>
       </c>
@@ -7834,51 +7834,51 @@
       <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="38" t="s">
+      <c r="M9" s="9" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B6:B7"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:M5"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="F6:H7"/>
     <mergeCell ref="I6:K7"/>
   </mergeCells>
